--- a/final_analysis.xlsx
+++ b/final_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L234"/>
+  <dimension ref="A1:L254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -774,7 +774,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>proc sort out=adsl</t>
+          <t>proc sort</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -804,7 +804,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>proc sort out=adam.adae</t>
+          <t>proc sort</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -1140,7 +1140,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>proc sort out=adsl</t>
+          <t>proc sort</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -1170,7 +1170,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>proc sort out=adam.adef</t>
+          <t>proc sort</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
@@ -1458,7 +1458,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>%mergsupp(sourcelib=sdtm, domains=dm);</t>
+          <t>%mergsupp(sourcelib=sdtm, domains=DM);</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -1484,7 +1484,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>%dtc2dt(rfstdtc, prefix=trts );</t>
+          <t>%dtc2dt(RFSTDTC, prefix=TRTS );</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
@@ -1510,7 +1510,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>%dtc2dt(brthdtc, prefix=brth);</t>
+          <t>%dtc2dt(BRTHDTC, prefix=BRTH);</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -1536,7 +1536,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>%dtc2dt(randdtc, prefix=rand);</t>
+          <t>%dtc2dt(RANDDTC, prefix=RAND);</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -1562,7 +1562,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>%dtc2dt(rfendtc, prefix=trte);</t>
+          <t>%dtc2dt(RFENDTC, prefix=TRTE);</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
@@ -1588,7 +1588,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>%make_sort_order(metadatafile=&amp;metadatafile, dataset=adsl);</t>
+          <t>%make_sort_order(metadatafile=&amp;metadatafile, dataset=ADSL);</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
@@ -1614,7 +1614,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>proc sort out=adam.adsl</t>
+          <t>proc sort</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
@@ -1812,7 +1812,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>proc sort out=adtte</t>
+          <t>proc sort</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -1842,7 +1842,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>proc sort out=adef</t>
+          <t>proc sort</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
@@ -1857,7 +1857,7 @@
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
-          <t>adef</t>
+          <t>adae</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -1872,7 +1872,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>proc sort out=adae</t>
+          <t>proc sort</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
@@ -1887,7 +1887,7 @@
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>adae</t>
+          <t>lstex</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -1902,7 +1902,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>proc sort out=lstex</t>
+          <t>proc sort</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
@@ -1917,7 +1917,7 @@
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>lstex</t>
+          <t>adam.adtte</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -1932,29 +1932,29 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>proc sort out=adam.adtte</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr"/>
+          <t>%include "/folders/myfolders/test1/common.sas";</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>/folders/myfolders/test1/common.sas</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>SAS Files\adam_adtte.sas</t>
+          <t>SAS Files\ae.sas</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>adam.adtte</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
@@ -1962,19 +1962,11 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>%include "/folders/myfolders/test1/common.sas";</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>/folders/myfolders/test1/common.sas</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>data source.adverse</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
           <t>SAS Files\ae.sas</t>
@@ -1983,8 +1975,16 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>source.adverse</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
@@ -1992,7 +1992,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>source.adverse</t>
+          <t>proc import out=temp</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
@@ -2007,16 +2007,20 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>source.adverse</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+          <t>temp</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>/folders/myfolders/test1/ae.xlsx</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
@@ -2074,14 +2078,14 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>proc means out=mean_values</t>
+          <t>proc sort</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
-          <t>SAS Files\Diabetes Prediction.sas</t>
+          <t>SAS Files\cfb.sas</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -2089,7 +2093,7 @@
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
-          <t>mean_values</t>
+          <t>&amp;outdata</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -2104,7 +2108,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>proc means out=stats</t>
+          <t>PROC SQL;</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
@@ -2117,11 +2121,7 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>stats</t>
-        </is>
-      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -2134,7 +2134,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>proc means out=logistic_results</t>
+          <t>PROC SQL;</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
@@ -2147,11 +2147,7 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>logistic_results</t>
-        </is>
-      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -2164,7 +2160,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>proc import out=diabetes_data</t>
+          <t>PROC MEANS DATA=diabetes_clean NOPRINT;</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
@@ -2177,28 +2173,24 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>mean_values</t>
+        </is>
+      </c>
       <c r="I61" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>/home/u64112808/sasuser.v94/diabetes prediction project/diabetes.csv</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>proc import out=new_data</t>
+          <t>PROC MEANS DATA=diabetes_imputed NOPRINT;</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
@@ -2211,28 +2203,24 @@
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>stats</t>
+        </is>
+      </c>
       <c r="I62" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>/home/u64112808/sasuser.v94/diabetes prediction project/test_data.csv</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>proc export data=new_data_predictions</t>
+          <t>PROC LOGISTIC DATA=diabetes_engineered DESCENDING;</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
@@ -2247,7 +2235,7 @@
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr">
         <is>
-          <t>/home/u64112808/sasuser.v94/diabetes prediction project/predicted_data.csv</t>
+          <t>logistic_results</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -2257,38 +2245,34 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>%include "/folders/myfolders/test1/common.sas";</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>/folders/myfolders/test1/common.sas</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>PROC LOGISTIC DATA=diabetes_engineered PLOTS(ONLY)=ROC;</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
-          <t>SAS Files\dm.sas</t>
+          <t>SAS Files\Diabetes Prediction.sas</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>roc_results</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
@@ -2296,14 +2280,14 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>source.demographic</t>
+          <t>PROC LOGISTIC DATA=diabetes_engineered DESCENDING;</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
-          <t>SAS Files\dm.sas</t>
+          <t>SAS Files\Diabetes Prediction.sas</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -2311,7 +2295,7 @@
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr">
         <is>
-          <t>source.demographic</t>
+          <t>refined_logistic_results</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -2326,29 +2310,29 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>%include "/folders/myfolders/test1/common.sas";</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>/folders/myfolders/test1/common.sas</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>PROC LOGISTIC INMODEL=refined_model;</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr">
         <is>
-          <t>SAS Files\ds.sas</t>
+          <t>SAS Files\Diabetes Prediction.sas</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>new_data_predictions</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
@@ -2356,44 +2340,48 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>set ds.sheet1</t>
+          <t>proc import out=diabetes_data</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
-          <t>SAS Files\ds.sas</t>
+          <t>SAS Files\Diabetes Prediction.sas</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>sheet1</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>diabetes_data</t>
+        </is>
+      </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
-          <t>ds.sheet1</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr"/>
+          <t>/home/u64112808/sasuser.v94/Diabetes Prediction Project/test_data.csv</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>source.dosing</t>
+          <t>proc export data=new_data_predictions</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr">
         <is>
-          <t>SAS Files\ds.sas</t>
+          <t>SAS Files\Diabetes Prediction.sas</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -2401,17 +2389,21 @@
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
         <is>
-          <t>source.dosing</t>
+          <t>/home/u64112808/sasuser.v94/Diabetes Prediction Project/predicted_data.csv</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2431,7 +2423,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>SAS Files\lab.sas</t>
+          <t>SAS Files\dm.sas</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -2446,14 +2438,14 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>source.labs</t>
+          <t>data source.demographic</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
-          <t>SAS Files\lab.sas</t>
+          <t>SAS Files\dm.sas</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -2461,7 +2453,7 @@
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
-          <t>source.labs</t>
+          <t>source.demographic</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -2476,12 +2468,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>%include "c:\00\00-data science\15-sas_project\sas_finalproject\treeoutput.sas";</t>
+          <t>%include "/folders/myfolders/test1/common.sas";</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>c:\00\00-data science\15-sas_project\sas_finalproject\treeoutput.sas</t>
+          <t>/folders/myfolders/test1/common.sas</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2491,7 +2483,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>SAS Files\LiWu_SAS_FinalProject.sas</t>
+          <t>SAS Files\ds.sas</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -2506,29 +2498,29 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>%include "c:\00\00-data science\15-sas_project\sas_finalproject\treeoutput.sas";</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>c:\00\00-data science\15-sas_project\sas_finalproject\treeoutput.sas</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>data source.dosing</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
-          <t>SAS Files\LiWu_SAS_FinalProject.sas</t>
+          <t>SAS Files\ds.sas</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>source.dosing</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
@@ -2536,21 +2528,25 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>%let var=age;</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr"/>
-      <c r="C73" t="inlineStr"/>
+          <t>%include "/folders/myfolders/test1/common.sas";</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>/folders/myfolders/test1/common.sas</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>SAS Files\LiWu_SAS_FinalProject.sas</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>var</t>
-        </is>
-      </c>
+          <t>SAS Files\lab.sas</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
@@ -2562,25 +2558,29 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>%let var=sex;</t>
+          <t>data source.labs</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr">
         <is>
-          <t>SAS Files\LiWu_SAS_FinalProject.sas</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>var</t>
-        </is>
-      </c>
+          <t>SAS Files\lab.sas</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>source.labs</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
@@ -2588,48 +2588,60 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>%unianalysis_num(age);</t>
+          <t>proc import out=temp</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
         <is>
-          <t>SAS Files\LiWu_SAS_FinalProject.sas</t>
+          <t>SAS Files\lab.sas</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>unianalysis_num</t>
-        </is>
-      </c>
+      <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>temp</t>
+        </is>
+      </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>/folders/myfolders/test1/lab.xls</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>%unianalysis_num(restingbp);</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr"/>
-      <c r="C76" t="inlineStr"/>
+          <t>%include "C:\00\00-DATA SCIENCE\15-SAS_Project\SAS_FinalProject\treeoutput.sas";</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>C:\00\00-DATA SCIENCE\15-SAS_Project\SAS_FinalProject\treeoutput.sas</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="D76" t="inlineStr">
         <is>
           <t>SAS Files\LiWu_SAS_FinalProject.sas</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>unianalysis_num</t>
-        </is>
-      </c>
+      <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
@@ -2640,22 +2652,26 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>%unianalysis_num(cholesterol);</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr"/>
-      <c r="C77" t="inlineStr"/>
+          <t>%include "C:\00\00-DATA SCIENCE\15-SAS_Project\SAS_FinalProject\treeoutput.sas";</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>C:\00\00-DATA SCIENCE\15-SAS_Project\SAS_FinalProject\treeoutput.sas</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="D77" t="inlineStr">
         <is>
           <t>SAS Files\LiWu_SAS_FinalProject.sas</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>unianalysis_num</t>
-        </is>
-      </c>
+      <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
@@ -2666,7 +2682,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>%unianalysis_num(maxhr);</t>
+          <t>%let var=Age;</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
@@ -2676,12 +2692,12 @@
           <t>SAS Files\LiWu_SAS_FinalProject.sas</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>unianalysis_num</t>
-        </is>
-      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>var</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
@@ -2692,7 +2708,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>%unianalysis_num(oldpeak);</t>
+          <t>%let var=Sex;</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
@@ -2702,12 +2718,12 @@
           <t>SAS Files\LiWu_SAS_FinalProject.sas</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>unianalysis_num</t>
-        </is>
-      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>var</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
@@ -2718,7 +2734,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>%turkey_outliers(age,1.5);</t>
+          <t>%UniAnalysis_Num(Age);</t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
@@ -2731,7 +2747,7 @@
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr">
         <is>
-          <t>turkey_outliers</t>
+          <t>UniAnalysis_Num</t>
         </is>
       </c>
       <c r="G80" t="inlineStr"/>
@@ -2744,7 +2760,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>%turkey_outliers(age,3);</t>
+          <t>%UniAnalysis_Num(RestingBP);</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
@@ -2757,7 +2773,7 @@
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr">
         <is>
-          <t>turkey_outliers</t>
+          <t>UniAnalysis_Num</t>
         </is>
       </c>
       <c r="G81" t="inlineStr"/>
@@ -2770,7 +2786,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>%turkey_outliers(restingbp,1.5);</t>
+          <t>%UniAnalysis_Num(Cholesterol);</t>
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
@@ -2783,7 +2799,7 @@
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr">
         <is>
-          <t>turkey_outliers</t>
+          <t>UniAnalysis_Num</t>
         </is>
       </c>
       <c r="G82" t="inlineStr"/>
@@ -2796,7 +2812,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>%turkey_outliers(restingbp,3);</t>
+          <t>%UniAnalysis_Num(MaxHR);</t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
@@ -2809,7 +2825,7 @@
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr">
         <is>
-          <t>turkey_outliers</t>
+          <t>UniAnalysis_Num</t>
         </is>
       </c>
       <c r="G83" t="inlineStr"/>
@@ -2822,7 +2838,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>%turkey_outliers(cholesterol,1.5);</t>
+          <t>%UniAnalysis_Num(Oldpeak);</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
@@ -2835,7 +2851,7 @@
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr">
         <is>
-          <t>turkey_outliers</t>
+          <t>UniAnalysis_Num</t>
         </is>
       </c>
       <c r="G84" t="inlineStr"/>
@@ -2848,7 +2864,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>%turkey_outliers(cholesterol,3);</t>
+          <t>%Turkey_Outliers(Age,1.5);</t>
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
@@ -2861,7 +2877,7 @@
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr">
         <is>
-          <t>turkey_outliers</t>
+          <t>Turkey_Outliers</t>
         </is>
       </c>
       <c r="G85" t="inlineStr"/>
@@ -2874,7 +2890,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>%turkey_outliers(maxhr,1.5);</t>
+          <t>%Turkey_Outliers(Age,3);</t>
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
@@ -2887,7 +2903,7 @@
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr">
         <is>
-          <t>turkey_outliers</t>
+          <t>Turkey_Outliers</t>
         </is>
       </c>
       <c r="G86" t="inlineStr"/>
@@ -2900,7 +2916,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>%turkey_outliers(maxhr,3);</t>
+          <t>%Turkey_Outliers(RestingBP,1.5);</t>
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
@@ -2913,7 +2929,7 @@
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr">
         <is>
-          <t>turkey_outliers</t>
+          <t>Turkey_Outliers</t>
         </is>
       </c>
       <c r="G87" t="inlineStr"/>
@@ -2926,7 +2942,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>%turkey_outliers(oldpeak,1.5);</t>
+          <t>%Turkey_Outliers(RestingBP,3);</t>
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
@@ -2939,7 +2955,7 @@
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr">
         <is>
-          <t>turkey_outliers</t>
+          <t>Turkey_Outliers</t>
         </is>
       </c>
       <c r="G88" t="inlineStr"/>
@@ -2952,7 +2968,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>%turkey_outliers(oldpeak,3);</t>
+          <t>%Turkey_Outliers(Cholesterol,1.5);</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
@@ -2965,7 +2981,7 @@
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr">
         <is>
-          <t>turkey_outliers</t>
+          <t>Turkey_Outliers</t>
         </is>
       </c>
       <c r="G89" t="inlineStr"/>
@@ -2978,7 +2994,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>%unianalysis_cat(sex);</t>
+          <t>%Turkey_Outliers(Cholesterol,3);</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
@@ -2991,7 +3007,7 @@
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr">
         <is>
-          <t>unianalysis_cat</t>
+          <t>Turkey_Outliers</t>
         </is>
       </c>
       <c r="G90" t="inlineStr"/>
@@ -3004,7 +3020,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>%unianalysis_cat(chestpaintype);</t>
+          <t>%Turkey_Outliers(MaxHR,1.5);</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
@@ -3017,7 +3033,7 @@
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr">
         <is>
-          <t>unianalysis_cat</t>
+          <t>Turkey_Outliers</t>
         </is>
       </c>
       <c r="G91" t="inlineStr"/>
@@ -3030,7 +3046,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>%unianalysis_cat(fastingbs);</t>
+          <t>%Turkey_Outliers(MaxHR,3);</t>
         </is>
       </c>
       <c r="B92" t="inlineStr"/>
@@ -3043,7 +3059,7 @@
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr">
         <is>
-          <t>unianalysis_cat</t>
+          <t>Turkey_Outliers</t>
         </is>
       </c>
       <c r="G92" t="inlineStr"/>
@@ -3056,7 +3072,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>%unianalysis_cat(restingecg);</t>
+          <t>%Turkey_Outliers(Oldpeak,1.5);</t>
         </is>
       </c>
       <c r="B93" t="inlineStr"/>
@@ -3069,7 +3085,7 @@
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr">
         <is>
-          <t>unianalysis_cat</t>
+          <t>Turkey_Outliers</t>
         </is>
       </c>
       <c r="G93" t="inlineStr"/>
@@ -3082,7 +3098,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>%unianalysis_cat(exerciseangina);</t>
+          <t>%Turkey_Outliers(Oldpeak,3);</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
@@ -3095,7 +3111,7 @@
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr">
         <is>
-          <t>unianalysis_cat</t>
+          <t>Turkey_Outliers</t>
         </is>
       </c>
       <c r="G94" t="inlineStr"/>
@@ -3108,7 +3124,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>%unianalysis_cat(st_slope);</t>
+          <t>%UniAnalysis_Cat(Sex);</t>
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
@@ -3121,7 +3137,7 @@
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr">
         <is>
-          <t>unianalysis_cat</t>
+          <t>UniAnalysis_Cat</t>
         </is>
       </c>
       <c r="G95" t="inlineStr"/>
@@ -3134,7 +3150,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>%unianalysis_cat_vbar(heartdisease);</t>
+          <t>%UniAnalysis_Cat(ChestPainType);</t>
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
@@ -3147,7 +3163,7 @@
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr">
         <is>
-          <t>unianalysis_cat_vbar</t>
+          <t>UniAnalysis_Cat</t>
         </is>
       </c>
       <c r="G96" t="inlineStr"/>
@@ -3160,7 +3176,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>%cat_cat(sex, heartdisease);</t>
+          <t>%UniAnalysis_Cat(FastingBS);</t>
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
@@ -3173,7 +3189,7 @@
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr">
         <is>
-          <t>cat_cat</t>
+          <t>UniAnalysis_Cat</t>
         </is>
       </c>
       <c r="G97" t="inlineStr"/>
@@ -3186,7 +3202,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>%cat_cat(chestpaintype, heartdisease);</t>
+          <t>%UniAnalysis_Cat(RestingECG);</t>
         </is>
       </c>
       <c r="B98" t="inlineStr"/>
@@ -3199,7 +3215,7 @@
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr">
         <is>
-          <t>cat_cat</t>
+          <t>UniAnalysis_Cat</t>
         </is>
       </c>
       <c r="G98" t="inlineStr"/>
@@ -3212,7 +3228,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>%cat_cat(fastingbs, heartdisease);</t>
+          <t>%UniAnalysis_Cat(ExerciseAngina);</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
@@ -3225,7 +3241,7 @@
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr">
         <is>
-          <t>cat_cat</t>
+          <t>UniAnalysis_Cat</t>
         </is>
       </c>
       <c r="G99" t="inlineStr"/>
@@ -3238,7 +3254,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>%cat_cat(restingecg, heartdisease);</t>
+          <t>%UniAnalysis_Cat(ST_Slope);</t>
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
@@ -3251,7 +3267,7 @@
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr">
         <is>
-          <t>cat_cat</t>
+          <t>UniAnalysis_Cat</t>
         </is>
       </c>
       <c r="G100" t="inlineStr"/>
@@ -3264,7 +3280,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>%cat_cat(exerciseangina, heartdisease);</t>
+          <t>%UniAnalysis_Cat_Vbar(HeartDisease);</t>
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
@@ -3277,7 +3293,7 @@
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr">
         <is>
-          <t>cat_cat</t>
+          <t>UniAnalysis_Cat_Vbar</t>
         </is>
       </c>
       <c r="G101" t="inlineStr"/>
@@ -3290,7 +3306,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>%cat_cat(st_slope, heartdisease);</t>
+          <t>%Cat_Cat(Sex, HeartDisease);</t>
         </is>
       </c>
       <c r="B102" t="inlineStr"/>
@@ -3303,7 +3319,7 @@
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr">
         <is>
-          <t>cat_cat</t>
+          <t>Cat_Cat</t>
         </is>
       </c>
       <c r="G102" t="inlineStr"/>
@@ -3316,7 +3332,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>%con_cat(age);</t>
+          <t>%Cat_Cat(ChestPainType, HeartDisease);</t>
         </is>
       </c>
       <c r="B103" t="inlineStr"/>
@@ -3329,7 +3345,7 @@
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr">
         <is>
-          <t>con_cat</t>
+          <t>Cat_Cat</t>
         </is>
       </c>
       <c r="G103" t="inlineStr"/>
@@ -3342,7 +3358,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>%con_cat(restingbp);</t>
+          <t>%Cat_Cat(FastingBS, HeartDisease);</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
@@ -3355,7 +3371,7 @@
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr">
         <is>
-          <t>con_cat</t>
+          <t>Cat_Cat</t>
         </is>
       </c>
       <c r="G104" t="inlineStr"/>
@@ -3368,7 +3384,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>%con_cat(cholesterol);</t>
+          <t>%Cat_Cat(RestingECG, HeartDisease);</t>
         </is>
       </c>
       <c r="B105" t="inlineStr"/>
@@ -3381,7 +3397,7 @@
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr">
         <is>
-          <t>con_cat</t>
+          <t>Cat_Cat</t>
         </is>
       </c>
       <c r="G105" t="inlineStr"/>
@@ -3394,7 +3410,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>%con_cat(maxhr);</t>
+          <t>%Cat_Cat(ExerciseAngina, HeartDisease);</t>
         </is>
       </c>
       <c r="B106" t="inlineStr"/>
@@ -3407,7 +3423,7 @@
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr">
         <is>
-          <t>con_cat</t>
+          <t>Cat_Cat</t>
         </is>
       </c>
       <c r="G106" t="inlineStr"/>
@@ -3420,7 +3436,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>%con_cat(oldpeak);</t>
+          <t>%Cat_Cat(ST_Slope, HeartDisease);</t>
         </is>
       </c>
       <c r="B107" t="inlineStr"/>
@@ -3433,7 +3449,7 @@
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr">
         <is>
-          <t>con_cat</t>
+          <t>Cat_Cat</t>
         </is>
       </c>
       <c r="G107" t="inlineStr"/>
@@ -3446,7 +3462,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>%cat_con(sex,restingbp);</t>
+          <t>%Con_Cat(Age);</t>
         </is>
       </c>
       <c r="B108" t="inlineStr"/>
@@ -3459,7 +3475,7 @@
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr">
         <is>
-          <t>cat_con</t>
+          <t>Con_Cat</t>
         </is>
       </c>
       <c r="G108" t="inlineStr"/>
@@ -3472,7 +3488,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>%cat_con(sex,cholesterol);</t>
+          <t>%Con_Cat(RestingBP);</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
@@ -3485,7 +3501,7 @@
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr">
         <is>
-          <t>cat_con</t>
+          <t>Con_Cat</t>
         </is>
       </c>
       <c r="G109" t="inlineStr"/>
@@ -3498,7 +3514,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>%cat_con(sex,maxhr);</t>
+          <t>%Con_Cat(Cholesterol);</t>
         </is>
       </c>
       <c r="B110" t="inlineStr"/>
@@ -3511,7 +3527,7 @@
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr">
         <is>
-          <t>cat_con</t>
+          <t>Con_Cat</t>
         </is>
       </c>
       <c r="G110" t="inlineStr"/>
@@ -3524,7 +3540,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>%cat_con(sex,oldpeak);</t>
+          <t>%Con_Cat(MaxHR);</t>
         </is>
       </c>
       <c r="B111" t="inlineStr"/>
@@ -3537,7 +3553,7 @@
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr">
         <is>
-          <t>cat_con</t>
+          <t>Con_Cat</t>
         </is>
       </c>
       <c r="G111" t="inlineStr"/>
@@ -3550,7 +3566,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>%cat_con(chestpaintype,restingbp);</t>
+          <t>%Con_Cat(Oldpeak);</t>
         </is>
       </c>
       <c r="B112" t="inlineStr"/>
@@ -3563,7 +3579,7 @@
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr">
         <is>
-          <t>cat_con</t>
+          <t>Con_Cat</t>
         </is>
       </c>
       <c r="G112" t="inlineStr"/>
@@ -3576,7 +3592,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>%cat_con(chestpaintype,cholesterol);</t>
+          <t>%Cat_Con(Sex,RestingBP);</t>
         </is>
       </c>
       <c r="B113" t="inlineStr"/>
@@ -3589,7 +3605,7 @@
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr">
         <is>
-          <t>cat_con</t>
+          <t>Cat_Con</t>
         </is>
       </c>
       <c r="G113" t="inlineStr"/>
@@ -3602,7 +3618,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>%cat_con(chestpaintype,maxhr);</t>
+          <t>%Cat_Con(Sex,Cholesterol);</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
@@ -3615,7 +3631,7 @@
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr">
         <is>
-          <t>cat_con</t>
+          <t>Cat_Con</t>
         </is>
       </c>
       <c r="G114" t="inlineStr"/>
@@ -3628,7 +3644,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>%cat_con(chestpaintype,oldpeak);</t>
+          <t>%Cat_Con(Sex,MaxHR);</t>
         </is>
       </c>
       <c r="B115" t="inlineStr"/>
@@ -3641,7 +3657,7 @@
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr">
         <is>
-          <t>cat_con</t>
+          <t>Cat_Con</t>
         </is>
       </c>
       <c r="G115" t="inlineStr"/>
@@ -3654,7 +3670,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>%features_con_cat(cholesterol,chestpaintype);</t>
+          <t>%Cat_Con(Sex,Oldpeak);</t>
         </is>
       </c>
       <c r="B116" t="inlineStr"/>
@@ -3667,7 +3683,7 @@
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr">
         <is>
-          <t>features_con_cat</t>
+          <t>Cat_Con</t>
         </is>
       </c>
       <c r="G116" t="inlineStr"/>
@@ -3680,7 +3696,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>%features_con_cat(maxhr,chestpaintype);</t>
+          <t>%Cat_Con(ChestPainType,RestingBP);</t>
         </is>
       </c>
       <c r="B117" t="inlineStr"/>
@@ -3693,7 +3709,7 @@
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr">
         <is>
-          <t>features_con_cat</t>
+          <t>Cat_Con</t>
         </is>
       </c>
       <c r="G117" t="inlineStr"/>
@@ -3706,7 +3722,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>%features_con_cat(oldpeak,chestpaintype);</t>
+          <t>%Cat_Con(ChestPainType,Cholesterol);</t>
         </is>
       </c>
       <c r="B118" t="inlineStr"/>
@@ -3719,7 +3735,7 @@
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr">
         <is>
-          <t>features_con_cat</t>
+          <t>Cat_Con</t>
         </is>
       </c>
       <c r="G118" t="inlineStr"/>
@@ -3732,7 +3748,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>%features_con_cat(age,chestpaintype);</t>
+          <t>%Cat_Con(ChestPainType,MaxHR);</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
@@ -3745,7 +3761,7 @@
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr">
         <is>
-          <t>features_con_cat</t>
+          <t>Cat_Con</t>
         </is>
       </c>
       <c r="G119" t="inlineStr"/>
@@ -3758,7 +3774,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>%cat_con(fastingbs,restingbp);</t>
+          <t>%Cat_Con(ChestPainType,Oldpeak);</t>
         </is>
       </c>
       <c r="B120" t="inlineStr"/>
@@ -3771,7 +3787,7 @@
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr">
         <is>
-          <t>cat_con</t>
+          <t>Cat_Con</t>
         </is>
       </c>
       <c r="G120" t="inlineStr"/>
@@ -3784,7 +3800,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>%cat_con(fastingbs,cholesterol);</t>
+          <t>%Features_Con_Cat(Cholesterol,ChestPainType);</t>
         </is>
       </c>
       <c r="B121" t="inlineStr"/>
@@ -3797,7 +3813,7 @@
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr">
         <is>
-          <t>cat_con</t>
+          <t>Features_Con_Cat</t>
         </is>
       </c>
       <c r="G121" t="inlineStr"/>
@@ -3810,7 +3826,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>%cat_con(fastingbs,maxhr);</t>
+          <t>%Features_Con_Cat(MaxHR,ChestPainType);</t>
         </is>
       </c>
       <c r="B122" t="inlineStr"/>
@@ -3823,7 +3839,7 @@
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr">
         <is>
-          <t>cat_con</t>
+          <t>Features_Con_Cat</t>
         </is>
       </c>
       <c r="G122" t="inlineStr"/>
@@ -3836,7 +3852,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>%cat_con(fastingbs,oldpeak);</t>
+          <t>%Features_Con_Cat(Oldpeak,ChestPainType);</t>
         </is>
       </c>
       <c r="B123" t="inlineStr"/>
@@ -3849,7 +3865,7 @@
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr">
         <is>
-          <t>cat_con</t>
+          <t>Features_Con_Cat</t>
         </is>
       </c>
       <c r="G123" t="inlineStr"/>
@@ -3862,7 +3878,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>%features_con_cat(age,fastingbs);</t>
+          <t>%Features_Con_Cat(Age,ChestPainType);</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
@@ -3875,7 +3891,7 @@
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr">
         <is>
-          <t>features_con_cat</t>
+          <t>Features_Con_Cat</t>
         </is>
       </c>
       <c r="G124" t="inlineStr"/>
@@ -3888,7 +3904,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>%cat_con(restingecg,restingbp);</t>
+          <t>%Cat_Con(FastingBS,RestingBP);</t>
         </is>
       </c>
       <c r="B125" t="inlineStr"/>
@@ -3901,7 +3917,7 @@
       <c r="E125" t="inlineStr"/>
       <c r="F125" t="inlineStr">
         <is>
-          <t>cat_con</t>
+          <t>Cat_Con</t>
         </is>
       </c>
       <c r="G125" t="inlineStr"/>
@@ -3914,7 +3930,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>%cat_con(restingecg,cholesterol);</t>
+          <t>%Cat_Con(FastingBS,Cholesterol);</t>
         </is>
       </c>
       <c r="B126" t="inlineStr"/>
@@ -3927,7 +3943,7 @@
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr">
         <is>
-          <t>cat_con</t>
+          <t>Cat_Con</t>
         </is>
       </c>
       <c r="G126" t="inlineStr"/>
@@ -3940,7 +3956,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>%cat_con(restingecg,maxhr);</t>
+          <t>%Cat_Con(FastingBS,MaxHR);</t>
         </is>
       </c>
       <c r="B127" t="inlineStr"/>
@@ -3953,7 +3969,7 @@
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr">
         <is>
-          <t>cat_con</t>
+          <t>Cat_Con</t>
         </is>
       </c>
       <c r="G127" t="inlineStr"/>
@@ -3966,7 +3982,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>%cat_con(restingecg,oldpeak);</t>
+          <t>%Cat_Con(FastingBS,Oldpeak);</t>
         </is>
       </c>
       <c r="B128" t="inlineStr"/>
@@ -3979,7 +3995,7 @@
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr">
         <is>
-          <t>cat_con</t>
+          <t>Cat_Con</t>
         </is>
       </c>
       <c r="G128" t="inlineStr"/>
@@ -3992,7 +4008,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>%features_con_cat(restingbp,restingecg);</t>
+          <t>%Features_Con_Cat(Age,FastingBS);</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
@@ -4005,7 +4021,7 @@
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr">
         <is>
-          <t>features_con_cat</t>
+          <t>Features_Con_Cat</t>
         </is>
       </c>
       <c r="G129" t="inlineStr"/>
@@ -4018,7 +4034,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>%features_con_cat(cholesterol,restingecg);</t>
+          <t>%Cat_Con(RestingECG,RestingBP);</t>
         </is>
       </c>
       <c r="B130" t="inlineStr"/>
@@ -4031,7 +4047,7 @@
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr">
         <is>
-          <t>features_con_cat</t>
+          <t>Cat_Con</t>
         </is>
       </c>
       <c r="G130" t="inlineStr"/>
@@ -4044,7 +4060,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>%features_con_cat(age,restingecg);</t>
+          <t>%Cat_Con(RestingECG,Cholesterol);</t>
         </is>
       </c>
       <c r="B131" t="inlineStr"/>
@@ -4057,7 +4073,7 @@
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr">
         <is>
-          <t>features_con_cat</t>
+          <t>Cat_Con</t>
         </is>
       </c>
       <c r="G131" t="inlineStr"/>
@@ -4070,7 +4086,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>%cat_con(exerciseangina,restingbp);</t>
+          <t>%Cat_Con(RestingECG,MaxHR);</t>
         </is>
       </c>
       <c r="B132" t="inlineStr"/>
@@ -4083,7 +4099,7 @@
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr">
         <is>
-          <t>cat_con</t>
+          <t>Cat_Con</t>
         </is>
       </c>
       <c r="G132" t="inlineStr"/>
@@ -4096,7 +4112,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>%cat_con(exerciseangina,cholesterol);</t>
+          <t>%Cat_Con(RestingECG,Oldpeak);</t>
         </is>
       </c>
       <c r="B133" t="inlineStr"/>
@@ -4109,7 +4125,7 @@
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr">
         <is>
-          <t>cat_con</t>
+          <t>Cat_Con</t>
         </is>
       </c>
       <c r="G133" t="inlineStr"/>
@@ -4122,7 +4138,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>%cat_con(exerciseangina,maxhr);</t>
+          <t>%Features_Con_Cat(RestingBP,RestingECG);</t>
         </is>
       </c>
       <c r="B134" t="inlineStr"/>
@@ -4135,7 +4151,7 @@
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr">
         <is>
-          <t>cat_con</t>
+          <t>Features_Con_Cat</t>
         </is>
       </c>
       <c r="G134" t="inlineStr"/>
@@ -4148,7 +4164,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>%cat_con(exerciseangina,oldpeak);</t>
+          <t>%Features_Con_Cat(Cholesterol,RestingECG);</t>
         </is>
       </c>
       <c r="B135" t="inlineStr"/>
@@ -4161,7 +4177,7 @@
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr">
         <is>
-          <t>cat_con</t>
+          <t>Features_Con_Cat</t>
         </is>
       </c>
       <c r="G135" t="inlineStr"/>
@@ -4174,7 +4190,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>%angina_con_cat(restingbp);</t>
+          <t>%Features_Con_Cat(Age,RestingECG);</t>
         </is>
       </c>
       <c r="B136" t="inlineStr"/>
@@ -4187,7 +4203,7 @@
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="inlineStr">
         <is>
-          <t>angina_con_cat</t>
+          <t>Features_Con_Cat</t>
         </is>
       </c>
       <c r="G136" t="inlineStr"/>
@@ -4200,7 +4216,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>%angina_con_cat(maxhr);</t>
+          <t>%Cat_Con(ExerciseAngina,RestingBP);</t>
         </is>
       </c>
       <c r="B137" t="inlineStr"/>
@@ -4213,7 +4229,7 @@
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr">
         <is>
-          <t>angina_con_cat</t>
+          <t>Cat_Con</t>
         </is>
       </c>
       <c r="G137" t="inlineStr"/>
@@ -4226,7 +4242,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>%angina_con_cat(oldpeak);</t>
+          <t>%Cat_Con(ExerciseAngina,Cholesterol);</t>
         </is>
       </c>
       <c r="B138" t="inlineStr"/>
@@ -4239,7 +4255,7 @@
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr">
         <is>
-          <t>angina_con_cat</t>
+          <t>Cat_Con</t>
         </is>
       </c>
       <c r="G138" t="inlineStr"/>
@@ -4252,7 +4268,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>%angina_con_cat(age);</t>
+          <t>%Cat_Con(ExerciseAngina,MaxHR);</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
@@ -4265,7 +4281,7 @@
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr">
         <is>
-          <t>angina_con_cat</t>
+          <t>Cat_Con</t>
         </is>
       </c>
       <c r="G139" t="inlineStr"/>
@@ -4278,7 +4294,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>%cat_con(st_slope,restingbp);</t>
+          <t>%Cat_Con(ExerciseAngina,Oldpeak);</t>
         </is>
       </c>
       <c r="B140" t="inlineStr"/>
@@ -4291,7 +4307,7 @@
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr">
         <is>
-          <t>cat_con</t>
+          <t>Cat_Con</t>
         </is>
       </c>
       <c r="G140" t="inlineStr"/>
@@ -4304,7 +4320,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>%cat_con(st_slope,cholesterol);</t>
+          <t>%Angina_Con_Cat(RestingBP);</t>
         </is>
       </c>
       <c r="B141" t="inlineStr"/>
@@ -4317,7 +4333,7 @@
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr">
         <is>
-          <t>cat_con</t>
+          <t>Angina_Con_Cat</t>
         </is>
       </c>
       <c r="G141" t="inlineStr"/>
@@ -4330,7 +4346,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>%cat_con(st_slope,maxhr);</t>
+          <t>%Angina_Con_Cat(MaxHR);</t>
         </is>
       </c>
       <c r="B142" t="inlineStr"/>
@@ -4343,7 +4359,7 @@
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr">
         <is>
-          <t>cat_con</t>
+          <t>Angina_Con_Cat</t>
         </is>
       </c>
       <c r="G142" t="inlineStr"/>
@@ -4356,7 +4372,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>%cat_con(st_slope,oldpeak);</t>
+          <t>%Angina_Con_Cat(Oldpeak);</t>
         </is>
       </c>
       <c r="B143" t="inlineStr"/>
@@ -4369,7 +4385,7 @@
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr">
         <is>
-          <t>cat_con</t>
+          <t>Angina_Con_Cat</t>
         </is>
       </c>
       <c r="G143" t="inlineStr"/>
@@ -4382,7 +4398,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>%features_con_cat(restingbp,st_slope);</t>
+          <t>%Angina_Con_Cat(Age);</t>
         </is>
       </c>
       <c r="B144" t="inlineStr"/>
@@ -4395,7 +4411,7 @@
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="inlineStr">
         <is>
-          <t>features_con_cat</t>
+          <t>Angina_Con_Cat</t>
         </is>
       </c>
       <c r="G144" t="inlineStr"/>
@@ -4408,7 +4424,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>%features_con_cat(cholesterol,st_slope);</t>
+          <t>%Cat_Con(ST_Slope,RestingBP);</t>
         </is>
       </c>
       <c r="B145" t="inlineStr"/>
@@ -4421,7 +4437,7 @@
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr">
         <is>
-          <t>features_con_cat</t>
+          <t>Cat_Con</t>
         </is>
       </c>
       <c r="G145" t="inlineStr"/>
@@ -4434,7 +4450,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>%features_con_cat(maxhr,st_slope);</t>
+          <t>%Cat_Con(ST_Slope,Cholesterol);</t>
         </is>
       </c>
       <c r="B146" t="inlineStr"/>
@@ -4447,7 +4463,7 @@
       <c r="E146" t="inlineStr"/>
       <c r="F146" t="inlineStr">
         <is>
-          <t>features_con_cat</t>
+          <t>Cat_Con</t>
         </is>
       </c>
       <c r="G146" t="inlineStr"/>
@@ -4460,7 +4476,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>%features_con_cat(oldpeak,st_slope);</t>
+          <t>%Cat_Con(ST_Slope,MaxHR);</t>
         </is>
       </c>
       <c r="B147" t="inlineStr"/>
@@ -4473,7 +4489,7 @@
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr">
         <is>
-          <t>features_con_cat</t>
+          <t>Cat_Con</t>
         </is>
       </c>
       <c r="G147" t="inlineStr"/>
@@ -4486,7 +4502,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>%features_con_cat(age,st_slope);</t>
+          <t>%Cat_Con(ST_Slope,Oldpeak);</t>
         </is>
       </c>
       <c r="B148" t="inlineStr"/>
@@ -4499,7 +4515,7 @@
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="inlineStr">
         <is>
-          <t>features_con_cat</t>
+          <t>Cat_Con</t>
         </is>
       </c>
       <c r="G148" t="inlineStr"/>
@@ -4512,7 +4528,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>%con_cat_imp(imp_cholesterol_mice);</t>
+          <t>%Features_Con_Cat(RestingBP,ST_Slope);</t>
         </is>
       </c>
       <c r="B149" t="inlineStr"/>
@@ -4525,7 +4541,7 @@
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="inlineStr">
         <is>
-          <t>con_cat_imp</t>
+          <t>Features_Con_Cat</t>
         </is>
       </c>
       <c r="G149" t="inlineStr"/>
@@ -4538,7 +4554,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>set sas.heart</t>
+          <t>%Features_Con_Cat(Cholesterol,ST_Slope);</t>
         </is>
       </c>
       <c r="B150" t="inlineStr"/>
@@ -4549,26 +4565,22 @@
         </is>
       </c>
       <c r="E150" t="inlineStr"/>
-      <c r="F150" t="inlineStr"/>
-      <c r="G150" t="inlineStr">
-        <is>
-          <t>heart</t>
-        </is>
-      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Features_Con_Cat</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr">
-        <is>
-          <t>sas.heart</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>set sas.heart</t>
+          <t>%Features_Con_Cat(MaxHR,ST_Slope);</t>
         </is>
       </c>
       <c r="B151" t="inlineStr"/>
@@ -4579,26 +4591,22 @@
         </is>
       </c>
       <c r="E151" t="inlineStr"/>
-      <c r="F151" t="inlineStr"/>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>heart</t>
-        </is>
-      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Features_Con_Cat</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr">
-        <is>
-          <t>sas.heart</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>set sas.heart</t>
+          <t>%Features_Con_Cat(Oldpeak,ST_Slope);</t>
         </is>
       </c>
       <c r="B152" t="inlineStr"/>
@@ -4609,26 +4617,22 @@
         </is>
       </c>
       <c r="E152" t="inlineStr"/>
-      <c r="F152" t="inlineStr"/>
-      <c r="G152" t="inlineStr">
-        <is>
-          <t>heart</t>
-        </is>
-      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Features_Con_Cat</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr"/>
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr">
-        <is>
-          <t>sas.heart</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>set sas.heart_imp</t>
+          <t>%Features_Con_Cat(Age,ST_Slope);</t>
         </is>
       </c>
       <c r="B153" t="inlineStr"/>
@@ -4639,26 +4643,22 @@
         </is>
       </c>
       <c r="E153" t="inlineStr"/>
-      <c r="F153" t="inlineStr"/>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t>heart_imp</t>
-        </is>
-      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Features_Con_Cat</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr"/>
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr">
-        <is>
-          <t>sas.heart_imp</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>set sas.heart_imp</t>
+          <t>%Con_Cat_imp(imp_Cholesterol_mice);</t>
         </is>
       </c>
       <c r="B154" t="inlineStr"/>
@@ -4669,26 +4669,22 @@
         </is>
       </c>
       <c r="E154" t="inlineStr"/>
-      <c r="F154" t="inlineStr"/>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t>heart_imp</t>
-        </is>
-      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Con_Cat_imp</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr"/>
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr">
-        <is>
-          <t>sas.heart_imp</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>read sas.heart</t>
+          <t>data &amp;var._outliers</t>
         </is>
       </c>
       <c r="B155" t="inlineStr"/>
@@ -4700,25 +4696,25 @@
       </c>
       <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>heart</t>
-        </is>
-      </c>
-      <c r="H155" t="inlineStr"/>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr">
-        <is>
-          <t>sas.heart</t>
-        </is>
-      </c>
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>&amp;var._outliers</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>read sas.heart</t>
+          <t>data SAS.Heart_imp</t>
         </is>
       </c>
       <c r="B156" t="inlineStr"/>
@@ -4730,25 +4726,25 @@
       </c>
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="inlineStr"/>
-      <c r="G156" t="inlineStr">
-        <is>
-          <t>heart</t>
-        </is>
-      </c>
-      <c r="H156" t="inlineStr"/>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr">
-        <is>
-          <t>sas.heart</t>
-        </is>
-      </c>
+      <c r="G156" t="inlineStr"/>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>SAS.Heart_imp</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>sas.heart_imp</t>
+          <t>data SAS.Heart_imp</t>
         </is>
       </c>
       <c r="B157" t="inlineStr"/>
@@ -4763,7 +4759,7 @@
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="inlineStr">
         <is>
-          <t>sas.heart_imp</t>
+          <t>SAS.Heart_imp</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -4778,7 +4774,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>sas.heart_imp</t>
+          <t>data SAS.Heart_imp</t>
         </is>
       </c>
       <c r="B158" t="inlineStr"/>
@@ -4793,7 +4789,7 @@
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="inlineStr">
         <is>
-          <t>sas.heart_imp</t>
+          <t>SAS.Heart_imp</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -4808,7 +4804,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>sas.heart_imp</t>
+          <t>proc sql;</t>
         </is>
       </c>
       <c r="B159" t="inlineStr"/>
@@ -4821,11 +4817,7 @@
       <c r="E159" t="inlineStr"/>
       <c r="F159" t="inlineStr"/>
       <c r="G159" t="inlineStr"/>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>sas.heart_imp</t>
-        </is>
-      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -4838,7 +4830,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>proc sort out=sas.heart_sorted</t>
+          <t>from SAS.Heart</t>
         </is>
       </c>
       <c r="B160" t="inlineStr"/>
@@ -4850,25 +4842,25 @@
       </c>
       <c r="E160" t="inlineStr"/>
       <c r="F160" t="inlineStr"/>
-      <c r="G160" t="inlineStr"/>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>sas.heart_sorted</t>
-        </is>
-      </c>
-      <c r="I160" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Heart</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>SAS.Heart</t>
+        </is>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>proc sort out=scored</t>
+          <t>proc sql;</t>
         </is>
       </c>
       <c r="B161" t="inlineStr"/>
@@ -4881,11 +4873,7 @@
       <c r="E161" t="inlineStr"/>
       <c r="F161" t="inlineStr"/>
       <c r="G161" t="inlineStr"/>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>scored</t>
-        </is>
-      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -4898,7 +4886,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>proc means out=quartiles</t>
+          <t>from SAS.Heart</t>
         </is>
       </c>
       <c r="B162" t="inlineStr"/>
@@ -4910,43 +4898,47 @@
       </c>
       <c r="E162" t="inlineStr"/>
       <c r="F162" t="inlineStr"/>
-      <c r="G162" t="inlineStr"/>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>quartiles</t>
-        </is>
-      </c>
-      <c r="I162" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Heart</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>SAS.Heart</t>
+        </is>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>%make_define(path=/folders/myfolders/define/sdtm/,metadata=sdtm_metadata.xlsx);</t>
+          <t>proc sort data=SAS.Heart out=SAS.Heart_Sorted noduprecs dupout=SAS.Heart_Duplicates;</t>
         </is>
       </c>
       <c r="B163" t="inlineStr"/>
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="inlineStr">
         <is>
-          <t>SAS Files\make_define.sas</t>
+          <t>SAS Files\LiWu_SAS_FinalProject.sas</t>
         </is>
       </c>
       <c r="E163" t="inlineStr"/>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>make_define</t>
-        </is>
-      </c>
+      <c r="F163" t="inlineStr"/>
       <c r="G163" t="inlineStr"/>
-      <c r="H163" t="inlineStr"/>
-      <c r="I163" t="inlineStr"/>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>SAS.Heart_Sorted</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
@@ -4954,25 +4946,29 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>%make_define(path=/folders/myfolders/define/adam/,metadata=adam_metadata.xlsx);</t>
+          <t>proc means data=SAS.Heart noprint;</t>
         </is>
       </c>
       <c r="B164" t="inlineStr"/>
       <c r="C164" t="inlineStr"/>
       <c r="D164" t="inlineStr">
         <is>
-          <t>SAS Files\make_define.sas</t>
+          <t>SAS Files\LiWu_SAS_FinalProject.sas</t>
         </is>
       </c>
       <c r="E164" t="inlineStr"/>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>make_define</t>
-        </is>
-      </c>
+      <c r="F164" t="inlineStr"/>
       <c r="G164" t="inlineStr"/>
-      <c r="H164" t="inlineStr"/>
-      <c r="I164" t="inlineStr"/>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>quartiles</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
@@ -4980,25 +4976,29 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>merge analysisresults (in = inar) doc_links (in = indoc_links);</t>
+          <t>proc stdize data=Heart_outliers out=Heart_Std;</t>
         </is>
       </c>
       <c r="B165" t="inlineStr"/>
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="inlineStr">
         <is>
-          <t>SAS Files\make_define.sas</t>
+          <t>SAS Files\LiWu_SAS_FinalProject.sas</t>
         </is>
       </c>
       <c r="E165" t="inlineStr"/>
       <c r="F165" t="inlineStr"/>
-      <c r="G165" t="inlineStr">
-        <is>
-          <t>analysisresults, doc_links</t>
-        </is>
-      </c>
-      <c r="H165" t="inlineStr"/>
-      <c r="I165" t="inlineStr"/>
+      <c r="G165" t="inlineStr"/>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Heart_Std</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
@@ -5006,25 +5006,29 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>merge toc_metadata variable_metadata(drop=label);</t>
+          <t>proc freq data=SAS.Heart;</t>
         </is>
       </c>
       <c r="B166" t="inlineStr"/>
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="inlineStr">
         <is>
-          <t>SAS Files\make_define.sas</t>
+          <t>SAS Files\LiWu_SAS_FinalProject.sas</t>
         </is>
       </c>
       <c r="E166" t="inlineStr"/>
       <c r="F166" t="inlineStr"/>
-      <c r="G166" t="inlineStr">
-        <is>
-          <t>toc_metadata, variable_metadata</t>
-        </is>
-      </c>
-      <c r="H166" t="inlineStr"/>
-      <c r="I166" t="inlineStr"/>
+      <c r="G166" t="inlineStr"/>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>FreqData</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
@@ -5032,14 +5036,14 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>proc sort out=doc_links</t>
+          <t>proc reg data=SAS.Heart;</t>
         </is>
       </c>
       <c r="B167" t="inlineStr"/>
       <c r="C167" t="inlineStr"/>
       <c r="D167" t="inlineStr">
         <is>
-          <t>SAS Files\make_define.sas</t>
+          <t>SAS Files\LiWu_SAS_FinalProject.sas</t>
         </is>
       </c>
       <c r="E167" t="inlineStr"/>
@@ -5047,7 +5051,7 @@
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="inlineStr">
         <is>
-          <t>doc_links</t>
+          <t>outstat</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -5062,93 +5066,89 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>proc import out=_temp</t>
+          <t>proc logistic data=SAS.Heart plots(only)=(effect oddsratio);</t>
         </is>
       </c>
       <c r="B168" t="inlineStr"/>
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="inlineStr">
         <is>
-          <t>SAS Files\make_empty_dataset.sas</t>
+          <t>SAS Files\LiWu_SAS_FinalProject.sas</t>
         </is>
       </c>
       <c r="E168" t="inlineStr"/>
       <c r="F168" t="inlineStr"/>
       <c r="G168" t="inlineStr"/>
-      <c r="H168" t="inlineStr"/>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>pred</t>
+        </is>
+      </c>
       <c r="I168" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="J168" t="inlineStr">
-        <is>
-          <t>&amp;metadatafile</t>
-        </is>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>proc import out=_temp</t>
+          <t>proc mi data=SAS.Heart_imp nimpute=1 seed=2025 out=SAS.Heart_imp;</t>
         </is>
       </c>
       <c r="B169" t="inlineStr"/>
       <c r="C169" t="inlineStr"/>
       <c r="D169" t="inlineStr">
         <is>
-          <t>SAS Files\make_sort_order.sas</t>
+          <t>SAS Files\LiWu_SAS_FinalProject.sas</t>
         </is>
       </c>
       <c r="E169" t="inlineStr"/>
       <c r="F169" t="inlineStr"/>
       <c r="G169" t="inlineStr"/>
-      <c r="H169" t="inlineStr"/>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>SAS.Heart_imp</t>
+        </is>
+      </c>
       <c r="I169" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="J169" t="inlineStr">
-        <is>
-          <t>&amp;metadatafile</t>
-        </is>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>%let suppdata=suppqual;</t>
+          <t>proc logistic data=SAS.Heart_imp plots(only)=(effect oddsratio);</t>
         </is>
       </c>
       <c r="B170" t="inlineStr"/>
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="inlineStr">
         <is>
-          <t>SAS Files\mergsupp.sas</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>suppdata</t>
-        </is>
-      </c>
+          <t>SAS Files\LiWu_SAS_FinalProject.sas</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr"/>
       <c r="F170" t="inlineStr"/>
       <c r="G170" t="inlineStr"/>
-      <c r="H170" t="inlineStr"/>
-      <c r="I170" t="inlineStr"/>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>pred</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
@@ -5156,25 +5156,29 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>%let suppdata=supp&amp;domain;</t>
+          <t>proc surveyselect data=SAS.Heart_imp rate=0.90 outall out=result seed=2025;</t>
         </is>
       </c>
       <c r="B171" t="inlineStr"/>
       <c r="C171" t="inlineStr"/>
       <c r="D171" t="inlineStr">
         <is>
-          <t>SAS Files\mergsupp.sas</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>suppdata</t>
-        </is>
-      </c>
+          <t>SAS Files\LiWu_SAS_FinalProject.sas</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr"/>
       <c r="F171" t="inlineStr"/>
       <c r="G171" t="inlineStr"/>
-      <c r="H171" t="inlineStr"/>
-      <c r="I171" t="inlineStr"/>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
@@ -5182,25 +5186,29 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>%let dsetnum=%sysfunc(open(&amp;sourcelib..&amp;domain));</t>
+          <t>proc logistic data=traindata plots=(ROC);</t>
         </is>
       </c>
       <c r="B172" t="inlineStr"/>
       <c r="C172" t="inlineStr"/>
       <c r="D172" t="inlineStr">
         <is>
-          <t>SAS Files\mergsupp.sas</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>dsetnum</t>
-        </is>
-      </c>
+          <t>SAS Files\LiWu_SAS_FinalProject.sas</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr"/>
       <c r="F172" t="inlineStr"/>
       <c r="G172" t="inlineStr"/>
-      <c r="H172" t="inlineStr"/>
-      <c r="I172" t="inlineStr"/>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>trainpred</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
@@ -5208,25 +5216,29 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>%let varnum=%sysfunc(varnum(&amp;dsetnum,&amp;idvar));</t>
+          <t>proc HPSPLIT data=traindata;</t>
         </is>
       </c>
       <c r="B173" t="inlineStr"/>
       <c r="C173" t="inlineStr"/>
       <c r="D173" t="inlineStr">
         <is>
-          <t>SAS Files\mergsupp.sas</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>varnum</t>
-        </is>
-      </c>
+          <t>SAS Files\LiWu_SAS_FinalProject.sas</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr"/>
       <c r="F173" t="inlineStr"/>
       <c r="G173" t="inlineStr"/>
-      <c r="H173" t="inlineStr"/>
-      <c r="I173" t="inlineStr"/>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>scored</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
@@ -5234,48 +5246,57 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>%let idtype=%sysfunc(vartype(&amp;dsetnum,&amp;varnum));</t>
+          <t>proc import out=SAS</t>
         </is>
       </c>
       <c r="B174" t="inlineStr"/>
       <c r="C174" t="inlineStr"/>
       <c r="D174" t="inlineStr">
         <is>
-          <t>SAS Files\mergsupp.sas</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>idtype</t>
-        </is>
-      </c>
+          <t>SAS Files\LiWu_SAS_FinalProject.sas</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr"/>
       <c r="F174" t="inlineStr"/>
       <c r="G174" t="inlineStr"/>
-      <c r="H174" t="inlineStr"/>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>C:\00\00-DATA SCIENCE\15-SAS_Project\SAS_FinalPro
+ject\heart.csv</t>
+        </is>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>%let rc=%sysfunc(close(&amp;dsetnum));</t>
+          <t>%make_define(path=/folders/myfolders/define/sdtm/,metadata=SDTM_METADATA.xlsx);</t>
         </is>
       </c>
       <c r="B175" t="inlineStr"/>
       <c r="C175" t="inlineStr"/>
       <c r="D175" t="inlineStr">
         <is>
-          <t>SAS Files\mergsupp.sas</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>rc</t>
-        </is>
-      </c>
-      <c r="F175" t="inlineStr"/>
+          <t>SAS Files\make_define.sas</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr"/>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>make_define</t>
+        </is>
+      </c>
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
@@ -5286,22 +5307,22 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>%let idtype= ;</t>
+          <t>%make_define(path=/folders/myfolders/define/adam/,metadata=ADAM_METADATA.xlsx);</t>
         </is>
       </c>
       <c r="B176" t="inlineStr"/>
       <c r="C176" t="inlineStr"/>
       <c r="D176" t="inlineStr">
         <is>
-          <t>SAS Files\mergsupp.sas</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>idtype</t>
-        </is>
-      </c>
-      <c r="F176" t="inlineStr"/>
+          <t>SAS Files\make_define.sas</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr"/>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>make_define</t>
+        </is>
+      </c>
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
@@ -5312,23 +5333,23 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>%let _wrd=1;</t>
+          <t>merge analysisresults (in = inar) doc_links (in = indoc_links);</t>
         </is>
       </c>
       <c r="B177" t="inlineStr"/>
       <c r="C177" t="inlineStr"/>
       <c r="D177" t="inlineStr">
         <is>
-          <t>SAS Files\mergsupp.sas</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>_wrd</t>
-        </is>
-      </c>
+          <t>SAS Files\make_define.sas</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr"/>
       <c r="F177" t="inlineStr"/>
-      <c r="G177" t="inlineStr"/>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>analysisresults, doc_links</t>
+        </is>
+      </c>
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -5338,23 +5359,23 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>%let domain=%scan(&amp;domains,&amp;_wrd);</t>
+          <t>merge toc_metadata VARIABLE_METADATA(drop=label);</t>
         </is>
       </c>
       <c r="B178" t="inlineStr"/>
       <c r="C178" t="inlineStr"/>
       <c r="D178" t="inlineStr">
         <is>
-          <t>SAS Files\mergsupp.sas</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>domain</t>
-        </is>
-      </c>
+          <t>SAS Files\make_define.sas</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr"/>
       <c r="F178" t="inlineStr"/>
-      <c r="G178" t="inlineStr"/>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>toc_metadata, VARIABLE_METADATA</t>
+        </is>
+      </c>
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -5364,25 +5385,29 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>%let _wrd=%eval(&amp;_wrd+1);</t>
+          <t>proc sort</t>
         </is>
       </c>
       <c r="B179" t="inlineStr"/>
       <c r="C179" t="inlineStr"/>
       <c r="D179" t="inlineStr">
         <is>
-          <t>SAS Files\mergsupp.sas</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>_wrd</t>
-        </is>
-      </c>
+          <t>SAS Files\make_define.sas</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr"/>
       <c r="F179" t="inlineStr"/>
       <c r="G179" t="inlineStr"/>
-      <c r="H179" t="inlineStr"/>
-      <c r="I179" t="inlineStr"/>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>doc_links</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
@@ -5390,92 +5415,116 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>%domainx(domain=&amp;domain,suppqual=0);</t>
+          <t>proc import out=define_header</t>
         </is>
       </c>
       <c r="B180" t="inlineStr"/>
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="inlineStr">
         <is>
-          <t>SAS Files\mergsupp.sas</t>
+          <t>SAS Files\make_define.sas</t>
         </is>
       </c>
       <c r="E180" t="inlineStr"/>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>domainx</t>
-        </is>
-      </c>
+      <c r="F180" t="inlineStr"/>
       <c r="G180" t="inlineStr"/>
-      <c r="H180" t="inlineStr"/>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>define_header</t>
+        </is>
+      </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>&amp;path\&amp;metadata</t>
+        </is>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>%domainx(domain=&amp;&amp;domain&amp;_i,suppqual=&amp;suppqual);</t>
+          <t>proc import out=toc_metadata</t>
         </is>
       </c>
       <c r="B181" t="inlineStr"/>
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="inlineStr">
         <is>
-          <t>SAS Files\mergsupp.sas</t>
+          <t>SAS Files\make_define.sas</t>
         </is>
       </c>
       <c r="E181" t="inlineStr"/>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>domainx</t>
-        </is>
-      </c>
+      <c r="F181" t="inlineStr"/>
       <c r="G181" t="inlineStr"/>
-      <c r="H181" t="inlineStr"/>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>toc_metadata</t>
+        </is>
+      </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>&amp;path\&amp;metadata</t>
+        </is>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>merge __tmp supp&amp;domain ;</t>
+          <t>proc import out=VARIABLE_METADATA</t>
         </is>
       </c>
       <c r="B182" t="inlineStr"/>
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="inlineStr">
         <is>
-          <t>SAS Files\mergsupp.sas</t>
+          <t>SAS Files\make_define.sas</t>
         </is>
       </c>
       <c r="E182" t="inlineStr"/>
       <c r="F182" t="inlineStr"/>
-      <c r="G182" t="inlineStr">
-        <is>
-          <t>__tmp, domain</t>
-        </is>
-      </c>
-      <c r="H182" t="inlineStr"/>
+      <c r="G182" t="inlineStr"/>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>VARIABLE_METADATA</t>
+        </is>
+      </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>&amp;path\&amp;metadata</t>
+        </is>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>proc sort out=nvars</t>
+          <t>proc import out=codelists</t>
         </is>
       </c>
       <c r="B183" t="inlineStr"/>
       <c r="C183" t="inlineStr"/>
       <c r="D183" t="inlineStr">
         <is>
-          <t>SAS Files\mergsupp.sas</t>
+          <t>SAS Files\make_define.sas</t>
         </is>
       </c>
       <c r="E183" t="inlineStr"/>
@@ -5483,29 +5532,33 @@
       <c r="G183" t="inlineStr"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>nvars</t>
-        </is>
-      </c>
-      <c r="I183" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+          <t>codelists</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>&amp;path\&amp;metadata</t>
+        </is>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>proc sort out=supp</t>
+          <t>proc import out=compmethod</t>
         </is>
       </c>
       <c r="B184" t="inlineStr"/>
       <c r="C184" t="inlineStr"/>
       <c r="D184" t="inlineStr">
         <is>
-          <t>SAS Files\mergsupp.sas</t>
+          <t>SAS Files\make_define.sas</t>
         </is>
       </c>
       <c r="E184" t="inlineStr"/>
@@ -5513,29 +5566,33 @@
       <c r="G184" t="inlineStr"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>supp</t>
-        </is>
-      </c>
-      <c r="I184" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+          <t>compmethod</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>&amp;path\&amp;metadata</t>
+        </is>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>proc sort out=__tmp</t>
+          <t>proc import out=valuelevel</t>
         </is>
       </c>
       <c r="B185" t="inlineStr"/>
       <c r="C185" t="inlineStr"/>
       <c r="D185" t="inlineStr">
         <is>
-          <t>SAS Files\mergsupp.sas</t>
+          <t>SAS Files\make_define.sas</t>
         </is>
       </c>
       <c r="E185" t="inlineStr"/>
@@ -5543,59 +5600,67 @@
       <c r="G185" t="inlineStr"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>__tmp</t>
-        </is>
-      </c>
-      <c r="I185" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+          <t>valuelevel</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>&amp;path\&amp;metadata</t>
+        </is>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>%include "/folders/myfolders/test1/common.sas";</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>/folders/myfolders/test1/common.sas</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>proc import out=analysisresults</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr"/>
+      <c r="C186" t="inlineStr"/>
       <c r="D186" t="inlineStr">
         <is>
-          <t>SAS Files\pn.sas</t>
+          <t>SAS Files\make_define.sas</t>
         </is>
       </c>
       <c r="E186" t="inlineStr"/>
       <c r="F186" t="inlineStr"/>
       <c r="G186" t="inlineStr"/>
-      <c r="H186" t="inlineStr"/>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>analysisresults</t>
+        </is>
+      </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>&amp;path\&amp;metadata</t>
+        </is>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>source.pain</t>
+          <t>proc import out=externallinks</t>
         </is>
       </c>
       <c r="B187" t="inlineStr"/>
       <c r="C187" t="inlineStr"/>
       <c r="D187" t="inlineStr">
         <is>
-          <t>SAS Files\pn.sas</t>
+          <t>SAS Files\make_define.sas</t>
         </is>
       </c>
       <c r="E187" t="inlineStr"/>
@@ -5603,100 +5668,108 @@
       <c r="G187" t="inlineStr"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>source.pain</t>
-        </is>
-      </c>
-      <c r="I187" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+          <t>externallinks</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>&amp;path\&amp;metadata</t>
+        </is>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>%include "/folders/myfolders/test1/common.sas";</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>/folders/myfolders/test1/common.sas</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>proc import out=_temp</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr"/>
+      <c r="C188" t="inlineStr"/>
       <c r="D188" t="inlineStr">
         <is>
-          <t>SAS Files\sdtm_ae.sas</t>
+          <t>SAS Files\make_empty_dataset.sas</t>
         </is>
       </c>
       <c r="E188" t="inlineStr"/>
       <c r="F188" t="inlineStr"/>
       <c r="G188" t="inlineStr"/>
-      <c r="H188" t="inlineStr"/>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>_temp</t>
+        </is>
+      </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>&amp;metadatafile</t>
+        </is>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>%include "/folders/myfolders/test1/make_sdtm_dy2.sas";</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>/folders/myfolders/test1/make_sdtm_dy2.sas</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+          <t>proc import out=_temp</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr"/>
+      <c r="C189" t="inlineStr"/>
       <c r="D189" t="inlineStr">
         <is>
-          <t>SAS Files\sdtm_ae.sas</t>
+          <t>SAS Files\make_sort_order.sas</t>
         </is>
       </c>
       <c r="E189" t="inlineStr"/>
       <c r="F189" t="inlineStr"/>
       <c r="G189" t="inlineStr"/>
-      <c r="H189" t="inlineStr"/>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>_temp</t>
+        </is>
+      </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>&amp;metadatafile</t>
+        </is>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>%include "/folders/myfolders/test1/make_sort_order.sas";</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>/folders/myfolders/test1/make_sort_order.sas</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+          <t>%let suppdata=suppqual;</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr"/>
+      <c r="C190" t="inlineStr"/>
       <c r="D190" t="inlineStr">
         <is>
-          <t>SAS Files\sdtm_ae.sas</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr"/>
+          <t>SAS Files\mergsupp.sas</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>suppdata</t>
+        </is>
+      </c>
       <c r="F190" t="inlineStr"/>
       <c r="G190" t="inlineStr"/>
       <c r="H190" t="inlineStr"/>
@@ -5708,25 +5781,21 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>%include "/folders/myfolders/test1/make_empty_dataset.sas";</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>/folders/myfolders/test1/make_empty_dataset.sas</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+          <t>%let suppdata=supp&amp;domain;</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr"/>
+      <c r="C191" t="inlineStr"/>
       <c r="D191" t="inlineStr">
         <is>
-          <t>SAS Files\sdtm_ae.sas</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr"/>
+          <t>SAS Files\mergsupp.sas</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>suppdata</t>
+        </is>
+      </c>
       <c r="F191" t="inlineStr"/>
       <c r="G191" t="inlineStr"/>
       <c r="H191" t="inlineStr"/>
@@ -5738,22 +5807,22 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>%make_empty_dataset(metadatafile=/folders/myfolders/test1/sdtm_metadata.xlsx,dataset=ae);</t>
+          <t>%let dsetnum=%sysfunc(open(&amp;sourcelib..&amp;domain));</t>
         </is>
       </c>
       <c r="B192" t="inlineStr"/>
       <c r="C192" t="inlineStr"/>
       <c r="D192" t="inlineStr">
         <is>
-          <t>SAS Files\sdtm_ae.sas</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr"/>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>make_empty_dataset</t>
-        </is>
-      </c>
+          <t>SAS Files\mergsupp.sas</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>dsetnum</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr"/>
       <c r="G192" t="inlineStr"/>
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
@@ -5764,22 +5833,22 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>%make_sdtm_dy(refdate=rfstdtc,date=aestdtc);</t>
+          <t>%let varnum=%sysfunc(varnum(&amp;dsetnum,&amp;idvar));</t>
         </is>
       </c>
       <c r="B193" t="inlineStr"/>
       <c r="C193" t="inlineStr"/>
       <c r="D193" t="inlineStr">
         <is>
-          <t>SAS Files\sdtm_ae.sas</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr"/>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>make_sdtm_dy</t>
-        </is>
-      </c>
+          <t>SAS Files\mergsupp.sas</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>varnum</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr"/>
       <c r="G193" t="inlineStr"/>
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
@@ -5790,22 +5859,22 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>%make_sdtm_dy(refdate=rfstdtc,date=aeendtc);</t>
+          <t>%let idtype=%sysfunc(vartype(&amp;dsetnum,&amp;varnum));</t>
         </is>
       </c>
       <c r="B194" t="inlineStr"/>
       <c r="C194" t="inlineStr"/>
       <c r="D194" t="inlineStr">
         <is>
-          <t>SAS Files\sdtm_ae.sas</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr"/>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>make_sdtm_dy</t>
-        </is>
-      </c>
+          <t>SAS Files\mergsupp.sas</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>idtype</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr"/>
       <c r="G194" t="inlineStr"/>
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
@@ -5816,22 +5885,22 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>%make_sort_order(metadatafile=/folders/myfolders/test1/sdtm_metadata.xlsx,dataset=ae);</t>
+          <t>%let rc=%sysfunc(close(&amp;dsetnum));</t>
         </is>
       </c>
       <c r="B195" t="inlineStr"/>
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="inlineStr">
         <is>
-          <t>SAS Files\sdtm_ae.sas</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr"/>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>make_sort_order</t>
-        </is>
-      </c>
+          <t>SAS Files\mergsupp.sas</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>rc</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr"/>
       <c r="G195" t="inlineStr"/>
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
@@ -5842,23 +5911,23 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>merge ae(in=inae) target.dm(keep=usubjid rfstdtc);</t>
+          <t>%let idtype= ;</t>
         </is>
       </c>
       <c r="B196" t="inlineStr"/>
       <c r="C196" t="inlineStr"/>
       <c r="D196" t="inlineStr">
         <is>
-          <t>SAS Files\sdtm_ae.sas</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr"/>
+          <t>SAS Files\mergsupp.sas</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>idtype</t>
+        </is>
+      </c>
       <c r="F196" t="inlineStr"/>
-      <c r="G196" t="inlineStr">
-        <is>
-          <t>ae, target.dm, usubjid</t>
-        </is>
-      </c>
+      <c r="G196" t="inlineStr"/>
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -5868,29 +5937,25 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>proc sort out=target.ae</t>
+          <t>%let _wrd=1;</t>
         </is>
       </c>
       <c r="B197" t="inlineStr"/>
       <c r="C197" t="inlineStr"/>
       <c r="D197" t="inlineStr">
         <is>
-          <t>SAS Files\sdtm_ae.sas</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr"/>
+          <t>SAS Files\mergsupp.sas</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>_wrd</t>
+        </is>
+      </c>
       <c r="F197" t="inlineStr"/>
       <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>target.ae</t>
-        </is>
-      </c>
-      <c r="I197" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
@@ -5898,25 +5963,21 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>%include "/folders/myfolders/test1/common.sas";</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>/folders/myfolders/test1/common.sas</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>%let domain=%scan(&amp;domains,&amp;_wrd);</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr"/>
+      <c r="C198" t="inlineStr"/>
       <c r="D198" t="inlineStr">
         <is>
-          <t>SAS Files\sdtm_dm.sas</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr"/>
+          <t>SAS Files\mergsupp.sas</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
       <c r="F198" t="inlineStr"/>
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr"/>
@@ -5928,25 +5989,21 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>%include "/folders/myfolders/test1/make_empty_dataset.sas";</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>/folders/myfolders/test1/make_empty_dataset.sas</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+          <t>%let _wrd=%eval(&amp;_wrd+1);</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr"/>
+      <c r="C199" t="inlineStr"/>
       <c r="D199" t="inlineStr">
         <is>
-          <t>SAS Files\sdtm_dm.sas</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr"/>
+          <t>SAS Files\mergsupp.sas</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>_wrd</t>
+        </is>
+      </c>
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr"/>
@@ -5958,26 +6015,22 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>%include "/folders/myfolders/test1/make_sort_order.sas";</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>/folders/myfolders/test1/make_sort_order.sas</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+          <t>%domainx(domain=&amp;domain,suppqual=0);</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr"/>
+      <c r="C200" t="inlineStr"/>
       <c r="D200" t="inlineStr">
         <is>
-          <t>SAS Files\sdtm_dm.sas</t>
+          <t>SAS Files\mergsupp.sas</t>
         </is>
       </c>
       <c r="E200" t="inlineStr"/>
-      <c r="F200" t="inlineStr"/>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>domainx</t>
+        </is>
+      </c>
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
@@ -5988,20 +6041,20 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>%make_empty_dataset(metadatafile=/folders/myfolders/test1/sdtm_metadata.xlsx,dataset=dm);</t>
+          <t>%domainx(domain=&amp;&amp;domain&amp;_i,suppqual=&amp;suppqual);</t>
         </is>
       </c>
       <c r="B201" t="inlineStr"/>
       <c r="C201" t="inlineStr"/>
       <c r="D201" t="inlineStr">
         <is>
-          <t>SAS Files\sdtm_dm.sas</t>
+          <t>SAS Files\mergsupp.sas</t>
         </is>
       </c>
       <c r="E201" t="inlineStr"/>
       <c r="F201" t="inlineStr">
         <is>
-          <t>make_empty_dataset</t>
+          <t>domainx</t>
         </is>
       </c>
       <c r="G201" t="inlineStr"/>
@@ -6014,23 +6067,23 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>%make_sort_order(metadatafile=/folders/myfolders/test1/sdtm_metadata.xlsx,dataset=dm);</t>
+          <t>merge __tmp supp&amp;domain ;</t>
         </is>
       </c>
       <c r="B202" t="inlineStr"/>
       <c r="C202" t="inlineStr"/>
       <c r="D202" t="inlineStr">
         <is>
-          <t>SAS Files\sdtm_dm.sas</t>
+          <t>SAS Files\mergsupp.sas</t>
         </is>
       </c>
       <c r="E202" t="inlineStr"/>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>make_sort_order</t>
-        </is>
-      </c>
-      <c r="G202" t="inlineStr"/>
+      <c r="F202" t="inlineStr"/>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>__tmp, supp&amp;domain</t>
+        </is>
+      </c>
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -6040,25 +6093,29 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>%make_empty_dataset(metadatafile=/folders/myfolders/test1/sdtm_metadata.xlsx,dataset=suppdm);</t>
+          <t>proc sort</t>
         </is>
       </c>
       <c r="B203" t="inlineStr"/>
       <c r="C203" t="inlineStr"/>
       <c r="D203" t="inlineStr">
         <is>
-          <t>SAS Files\sdtm_dm.sas</t>
+          <t>SAS Files\mergsupp.sas</t>
         </is>
       </c>
       <c r="E203" t="inlineStr"/>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>make_empty_dataset</t>
-        </is>
-      </c>
+      <c r="F203" t="inlineStr"/>
       <c r="G203" t="inlineStr"/>
-      <c r="H203" t="inlineStr"/>
-      <c r="I203" t="inlineStr"/>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>nvars</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
@@ -6066,25 +6123,29 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>%make_sort_order(metadatafile=/folders/myfolders/test1/sdtm_metadata.xlsx,dataset=suppdm);</t>
+          <t>proc sort</t>
         </is>
       </c>
       <c r="B204" t="inlineStr"/>
       <c r="C204" t="inlineStr"/>
       <c r="D204" t="inlineStr">
         <is>
-          <t>SAS Files\sdtm_dm.sas</t>
+          <t>SAS Files\mergsupp.sas</t>
         </is>
       </c>
       <c r="E204" t="inlineStr"/>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>make_sort_order</t>
-        </is>
-      </c>
+      <c r="F204" t="inlineStr"/>
       <c r="G204" t="inlineStr"/>
-      <c r="H204" t="inlineStr"/>
-      <c r="I204" t="inlineStr"/>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>supp&amp;domain</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
@@ -6092,14 +6153,14 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>proc sort out=dosing</t>
+          <t>proc sort</t>
         </is>
       </c>
       <c r="B205" t="inlineStr"/>
       <c r="C205" t="inlineStr"/>
       <c r="D205" t="inlineStr">
         <is>
-          <t>SAS Files\sdtm_dm.sas</t>
+          <t>SAS Files\mergsupp.sas</t>
         </is>
       </c>
       <c r="E205" t="inlineStr"/>
@@ -6107,7 +6168,7 @@
       <c r="G205" t="inlineStr"/>
       <c r="H205" t="inlineStr">
         <is>
-          <t>dosing</t>
+          <t>__tmp</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
@@ -6122,29 +6183,29 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>proc sort out=demographic</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr"/>
-      <c r="C206" t="inlineStr"/>
+          <t>%include "/folders/myfolders/test1/common.sas";</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>/folders/myfolders/test1/common.sas</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>SAS Files\sdtm_dm.sas</t>
+          <t>SAS Files\pn.sas</t>
         </is>
       </c>
       <c r="E206" t="inlineStr"/>
       <c r="F206" t="inlineStr"/>
       <c r="G206" t="inlineStr"/>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>demographic</t>
-        </is>
-      </c>
-      <c r="I206" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr"/>
@@ -6152,14 +6213,14 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>proc sort out=target.dm</t>
+          <t>data source.pain</t>
         </is>
       </c>
       <c r="B207" t="inlineStr"/>
       <c r="C207" t="inlineStr"/>
       <c r="D207" t="inlineStr">
         <is>
-          <t>SAS Files\sdtm_dm.sas</t>
+          <t>SAS Files\pn.sas</t>
         </is>
       </c>
       <c r="E207" t="inlineStr"/>
@@ -6167,7 +6228,7 @@
       <c r="G207" t="inlineStr"/>
       <c r="H207" t="inlineStr">
         <is>
-          <t>target.dm</t>
+          <t>source.pain</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
@@ -6182,29 +6243,29 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>proc sort out=target.suppdm</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr"/>
-      <c r="C208" t="inlineStr"/>
+          <t>%include "/folders/myfolders/test1/common.sas";</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>/folders/myfolders/test1/common.sas</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>SAS Files\sdtm_dm.sas</t>
+          <t>SAS Files\sdtm_ae.sas</t>
         </is>
       </c>
       <c r="E208" t="inlineStr"/>
       <c r="F208" t="inlineStr"/>
       <c r="G208" t="inlineStr"/>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>target.suppdm</t>
-        </is>
-      </c>
-      <c r="I208" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr"/>
@@ -6212,22 +6273,22 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>%include "/folders/myfolders/test1/common.sas";</t>
+          <t>%include "/folders/myfolders/test1/make_sdtm_dy2.sas";</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>/folders/myfolders/test1/common.sas</t>
+          <t>/folders/myfolders/test1/make_sdtm_dy2.sas</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>SAS Files\sdtm_ex.sas</t>
+          <t>SAS Files\sdtm_ae.sas</t>
         </is>
       </c>
       <c r="E209" t="inlineStr"/>
@@ -6242,12 +6303,12 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>%include "/folders/myfolders/test1/make_empty_dataset.sas";</t>
+          <t>%include "/folders/myfolders/test1/make_sort_order.sas";</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>/folders/myfolders/test1/make_empty_dataset.sas</t>
+          <t>/folders/myfolders/test1/make_sort_order.sas</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -6257,7 +6318,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>SAS Files\sdtm_ex.sas</t>
+          <t>SAS Files\sdtm_ae.sas</t>
         </is>
       </c>
       <c r="E210" t="inlineStr"/>
@@ -6272,12 +6333,12 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>%include "/folders/myfolders/test1/make_sdtm_dy2.sas";</t>
+          <t>%include "/folders/myfolders/test1/make_empty_dataset.sas";</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>/folders/myfolders/test1/make_sdtm_dy2.sas</t>
+          <t>/folders/myfolders/test1/make_empty_dataset.sas</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -6287,7 +6348,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>SAS Files\sdtm_ex.sas</t>
+          <t>SAS Files\sdtm_ae.sas</t>
         </is>
       </c>
       <c r="E211" t="inlineStr"/>
@@ -6302,26 +6363,22 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>%include "/folders/myfolders/test1/make_sort_order.sas";</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>/folders/myfolders/test1/make_sort_order.sas</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+          <t>%make_empty_dataset(metadatafile=/folders/myfolders/test1/SDTM_METADATA.xlsx,dataset=AE);</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr"/>
+      <c r="C212" t="inlineStr"/>
       <c r="D212" t="inlineStr">
         <is>
-          <t>SAS Files\sdtm_ex.sas</t>
+          <t>SAS Files\sdtm_ae.sas</t>
         </is>
       </c>
       <c r="E212" t="inlineStr"/>
-      <c r="F212" t="inlineStr"/>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>make_empty_dataset</t>
+        </is>
+      </c>
       <c r="G212" t="inlineStr"/>
       <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
@@ -6332,20 +6389,20 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>%make_empty_dataset(metadatafile=/folders/myfolders/test1/sdtm_metadata.xlsx,dataset=ex);</t>
+          <t>%make_sdtm_dy(refdate=rfstdtc,date=aestdtc);</t>
         </is>
       </c>
       <c r="B213" t="inlineStr"/>
       <c r="C213" t="inlineStr"/>
       <c r="D213" t="inlineStr">
         <is>
-          <t>SAS Files\sdtm_ex.sas</t>
+          <t>SAS Files\sdtm_ae.sas</t>
         </is>
       </c>
       <c r="E213" t="inlineStr"/>
       <c r="F213" t="inlineStr">
         <is>
-          <t>make_empty_dataset</t>
+          <t>make_sdtm_dy</t>
         </is>
       </c>
       <c r="G213" t="inlineStr"/>
@@ -6358,14 +6415,14 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>%make_sdtm_dy(refdate=rfstdtc,date=exstdtc);</t>
+          <t>%make_sdtm_dy(refdate=rfstdtc,date=aeendtc);</t>
         </is>
       </c>
       <c r="B214" t="inlineStr"/>
       <c r="C214" t="inlineStr"/>
       <c r="D214" t="inlineStr">
         <is>
-          <t>SAS Files\sdtm_ex.sas</t>
+          <t>SAS Files\sdtm_ae.sas</t>
         </is>
       </c>
       <c r="E214" t="inlineStr"/>
@@ -6384,20 +6441,20 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>%make_sdtm_dy(refdate=rfstdtc,date=exendtc);</t>
+          <t>%make_sort_order(metadatafile=/folders/myfolders/test1/SDTM_METADATA.xlsx,dataset=AE);</t>
         </is>
       </c>
       <c r="B215" t="inlineStr"/>
       <c r="C215" t="inlineStr"/>
       <c r="D215" t="inlineStr">
         <is>
-          <t>SAS Files\sdtm_ex.sas</t>
+          <t>SAS Files\sdtm_ae.sas</t>
         </is>
       </c>
       <c r="E215" t="inlineStr"/>
       <c r="F215" t="inlineStr">
         <is>
-          <t>make_sdtm_dy</t>
+          <t>make_sort_order</t>
         </is>
       </c>
       <c r="G215" t="inlineStr"/>
@@ -6410,23 +6467,23 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>%make_sort_order(metadatafile=/folders/myfolders/test1/sdtm_metadata.xlsx,dataset=ex);</t>
+          <t>merge ae(in=inae) target.dm(keep=usubjid rfstdtc);</t>
         </is>
       </c>
       <c r="B216" t="inlineStr"/>
       <c r="C216" t="inlineStr"/>
       <c r="D216" t="inlineStr">
         <is>
-          <t>SAS Files\sdtm_ex.sas</t>
+          <t>SAS Files\sdtm_ae.sas</t>
         </is>
       </c>
       <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>make_sort_order</t>
-        </is>
-      </c>
-      <c r="G216" t="inlineStr"/>
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>ae, target.dm, usubjid</t>
+        </is>
+      </c>
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -6436,25 +6493,29 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>merge ex(in=inex) target.dm(keep=usubjid rfstdtc arm);</t>
+          <t>proc sort</t>
         </is>
       </c>
       <c r="B217" t="inlineStr"/>
       <c r="C217" t="inlineStr"/>
       <c r="D217" t="inlineStr">
         <is>
-          <t>SAS Files\sdtm_ex.sas</t>
+          <t>SAS Files\sdtm_ae.sas</t>
         </is>
       </c>
       <c r="E217" t="inlineStr"/>
       <c r="F217" t="inlineStr"/>
-      <c r="G217" t="inlineStr">
-        <is>
-          <t>ex, target.dm, usubjid, rfstdtc</t>
-        </is>
-      </c>
-      <c r="H217" t="inlineStr"/>
-      <c r="I217" t="inlineStr"/>
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>target.ae</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr"/>
@@ -6462,29 +6523,29 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>proc sort out=target.ex</t>
-        </is>
-      </c>
-      <c r="B218" t="inlineStr"/>
-      <c r="C218" t="inlineStr"/>
+          <t>%include "/folders/myfolders/test1/common.sas";</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>/folders/myfolders/test1/common.sas</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>SAS Files\sdtm_ex.sas</t>
+          <t>SAS Files\sdtm_dm.sas</t>
         </is>
       </c>
       <c r="E218" t="inlineStr"/>
       <c r="F218" t="inlineStr"/>
       <c r="G218" t="inlineStr"/>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>target.ex</t>
-        </is>
-      </c>
-      <c r="I218" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr"/>
@@ -6492,22 +6553,22 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>%include "/folders/myfolders/test1/common.sas";</t>
+          <t>%include "/folders/myfolders/test1/make_empty_dataset.sas";</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>/folders/myfolders/test1/common.sas</t>
+          <t>/folders/myfolders/test1/make_empty_dataset.sas</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>SAS Files\sdtm_lb.sas</t>
+          <t>SAS Files\sdtm_dm.sas</t>
         </is>
       </c>
       <c r="E219" t="inlineStr"/>
@@ -6522,12 +6583,12 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>%include "/folders/myfolders/test1/make_empty_dataset.sas";</t>
+          <t>%include "/folders/myfolders/test1/make_sort_order.sas";</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>/folders/myfolders/test1/make_empty_dataset.sas</t>
+          <t>/folders/myfolders/test1/make_sort_order.sas</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -6537,7 +6598,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>SAS Files\sdtm_lb.sas</t>
+          <t>SAS Files\sdtm_dm.sas</t>
         </is>
       </c>
       <c r="E220" t="inlineStr"/>
@@ -6552,26 +6613,22 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>%include "/folders/myfolders/test1/make_sdtm_dy2.sas";</t>
-        </is>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>/folders/myfolders/test1/make_sdtm_dy2.sas</t>
-        </is>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+          <t>%make_empty_dataset(metadatafile=/folders/myfolders/test1/SDTM_METADATA.xlsx,dataset=DM);</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr"/>
+      <c r="C221" t="inlineStr"/>
       <c r="D221" t="inlineStr">
         <is>
-          <t>SAS Files\sdtm_lb.sas</t>
+          <t>SAS Files\sdtm_dm.sas</t>
         </is>
       </c>
       <c r="E221" t="inlineStr"/>
-      <c r="F221" t="inlineStr"/>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>make_empty_dataset</t>
+        </is>
+      </c>
       <c r="G221" t="inlineStr"/>
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
@@ -6582,26 +6639,22 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>%include "/folders/myfolders/test1/make_sort_order.sas";</t>
-        </is>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>/folders/myfolders/test1/make_sort_order.sas</t>
-        </is>
-      </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+          <t>%make_sort_order(metadatafile=/folders/myfolders/test1/SDTM_METADATA.xlsx,dataset=DM);</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr"/>
+      <c r="C222" t="inlineStr"/>
       <c r="D222" t="inlineStr">
         <is>
-          <t>SAS Files\sdtm_lb.sas</t>
+          <t>SAS Files\sdtm_dm.sas</t>
         </is>
       </c>
       <c r="E222" t="inlineStr"/>
-      <c r="F222" t="inlineStr"/>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>make_sort_order</t>
+        </is>
+      </c>
       <c r="G222" t="inlineStr"/>
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
@@ -6612,14 +6665,14 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>%make_empty_dataset(metadatafile=/folders/myfolders/test1/sdtm_metadata.xlsx,dataset=lb);</t>
+          <t>%make_empty_dataset(metadatafile=/folders/myfolders/test1/SDTM_METADATA.xlsx,dataset=SUPPDM);</t>
         </is>
       </c>
       <c r="B223" t="inlineStr"/>
       <c r="C223" t="inlineStr"/>
       <c r="D223" t="inlineStr">
         <is>
-          <t>SAS Files\sdtm_lb.sas</t>
+          <t>SAS Files\sdtm_dm.sas</t>
         </is>
       </c>
       <c r="E223" t="inlineStr"/>
@@ -6638,14 +6691,14 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>%make_sort_order(metadatafile=/folders/myfolders/test1/sdtm_metadata.xlsx,dataset=lb);</t>
+          <t>%make_sort_order(metadatafile=/folders/myfolders/test1/SDTM_METADATA.xlsx,dataset=SUPPDM);</t>
         </is>
       </c>
       <c r="B224" t="inlineStr"/>
       <c r="C224" t="inlineStr"/>
       <c r="D224" t="inlineStr">
         <is>
-          <t>SAS Files\sdtm_lb.sas</t>
+          <t>SAS Files\sdtm_dm.sas</t>
         </is>
       </c>
       <c r="E224" t="inlineStr"/>
@@ -6664,25 +6717,29 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>merge lb(in=inlb) target.dm(keep=usubjid rfstdtc);</t>
+          <t>proc sort</t>
         </is>
       </c>
       <c r="B225" t="inlineStr"/>
       <c r="C225" t="inlineStr"/>
       <c r="D225" t="inlineStr">
         <is>
-          <t>SAS Files\sdtm_lb.sas</t>
+          <t>SAS Files\sdtm_dm.sas</t>
         </is>
       </c>
       <c r="E225" t="inlineStr"/>
       <c r="F225" t="inlineStr"/>
-      <c r="G225" t="inlineStr">
-        <is>
-          <t>lb, target.dm, usubjid</t>
-        </is>
-      </c>
-      <c r="H225" t="inlineStr"/>
-      <c r="I225" t="inlineStr"/>
+      <c r="G225" t="inlineStr"/>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>dosing</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr"/>
@@ -6690,14 +6747,14 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>proc sort out=target.lb</t>
+          <t>proc sort</t>
         </is>
       </c>
       <c r="B226" t="inlineStr"/>
       <c r="C226" t="inlineStr"/>
       <c r="D226" t="inlineStr">
         <is>
-          <t>SAS Files\sdtm_lb.sas</t>
+          <t>SAS Files\sdtm_dm.sas</t>
         </is>
       </c>
       <c r="E226" t="inlineStr"/>
@@ -6705,7 +6762,7 @@
       <c r="G226" t="inlineStr"/>
       <c r="H226" t="inlineStr">
         <is>
-          <t>target.lb</t>
+          <t>demographic</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
@@ -6720,29 +6777,29 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>%include "/folders/myfolders/test1/common.sas";</t>
-        </is>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>/folders/myfolders/test1/common.sas</t>
-        </is>
-      </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>proc sort</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr"/>
+      <c r="C227" t="inlineStr"/>
       <c r="D227" t="inlineStr">
         <is>
-          <t>SAS Files\sdtm_xp.sas</t>
+          <t>SAS Files\sdtm_dm.sas</t>
         </is>
       </c>
       <c r="E227" t="inlineStr"/>
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr"/>
-      <c r="I227" t="inlineStr"/>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>target.dm</t>
+        </is>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr"/>
@@ -6750,29 +6807,29 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>%include "/folders/myfolders/test1/make_sdtm_dy2.sas";</t>
-        </is>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>/folders/myfolders/test1/make_sdtm_dy2.sas</t>
-        </is>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+          <t>proc sort</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr"/>
+      <c r="C228" t="inlineStr"/>
       <c r="D228" t="inlineStr">
         <is>
-          <t>SAS Files\sdtm_xp.sas</t>
+          <t>SAS Files\sdtm_dm.sas</t>
         </is>
       </c>
       <c r="E228" t="inlineStr"/>
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="inlineStr"/>
-      <c r="H228" t="inlineStr"/>
-      <c r="I228" t="inlineStr"/>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>target.suppdm</t>
+        </is>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr"/>
@@ -6780,22 +6837,22 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>%include "/folders/myfolders/test1/make_sort_order.sas";</t>
+          <t>%include "/folders/myfolders/test1/common.sas";</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>/folders/myfolders/test1/make_sort_order.sas</t>
+          <t>/folders/myfolders/test1/common.sas</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>SAS Files\sdtm_xp.sas</t>
+          <t>SAS Files\sdtm_ex.sas</t>
         </is>
       </c>
       <c r="E229" t="inlineStr"/>
@@ -6825,7 +6882,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>SAS Files\sdtm_xp.sas</t>
+          <t>SAS Files\sdtm_ex.sas</t>
         </is>
       </c>
       <c r="E230" t="inlineStr"/>
@@ -6840,22 +6897,26 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>%make_empty_dataset(metadatafile=/folders/myfolders/test1/sdtm_metadata.xlsx,dataset=xp);</t>
-        </is>
-      </c>
-      <c r="B231" t="inlineStr"/>
-      <c r="C231" t="inlineStr"/>
+          <t>%include "/folders/myfolders/test1/make_sdtm_dy2.sas";</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>/folders/myfolders/test1/make_sdtm_dy2.sas</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>SAS Files\sdtm_xp.sas</t>
+          <t>SAS Files\sdtm_ex.sas</t>
         </is>
       </c>
       <c r="E231" t="inlineStr"/>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>make_empty_dataset</t>
-        </is>
-      </c>
+      <c r="F231" t="inlineStr"/>
       <c r="G231" t="inlineStr"/>
       <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
@@ -6866,22 +6927,26 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>%make_sort_order(metadatafile=/folders/myfolders/test1/sdtm_metadata.xlsx,dataset=xp);</t>
-        </is>
-      </c>
-      <c r="B232" t="inlineStr"/>
-      <c r="C232" t="inlineStr"/>
+          <t>%include "/folders/myfolders/test1/make_sort_order.sas";</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>/folders/myfolders/test1/make_sort_order.sas</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>SAS Files\sdtm_xp.sas</t>
+          <t>SAS Files\sdtm_ex.sas</t>
         </is>
       </c>
       <c r="E232" t="inlineStr"/>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>make_sort_order</t>
-        </is>
-      </c>
+      <c r="F232" t="inlineStr"/>
       <c r="G232" t="inlineStr"/>
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
@@ -6892,23 +6957,23 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>merge xp(in=inxp) target.dm(keep=usubjid rfstdtc);</t>
+          <t>%make_empty_dataset(metadatafile=/folders/myfolders/test1/SDTM_METADATA.xlsx,dataset=EX);</t>
         </is>
       </c>
       <c r="B233" t="inlineStr"/>
       <c r="C233" t="inlineStr"/>
       <c r="D233" t="inlineStr">
         <is>
-          <t>SAS Files\sdtm_xp.sas</t>
+          <t>SAS Files\sdtm_ex.sas</t>
         </is>
       </c>
       <c r="E233" t="inlineStr"/>
-      <c r="F233" t="inlineStr"/>
-      <c r="G233" t="inlineStr">
-        <is>
-          <t>xp, target.dm, usubjid</t>
-        </is>
-      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>make_empty_dataset</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr"/>
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -6918,32 +6983,592 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>proc sort out=target.xp</t>
+          <t>%make_sdtm_dy(refdate=rfstdtc,date=exstdtc);</t>
         </is>
       </c>
       <c r="B234" t="inlineStr"/>
       <c r="C234" t="inlineStr"/>
       <c r="D234" t="inlineStr">
         <is>
-          <t>SAS Files\sdtm_xp.sas</t>
+          <t>SAS Files\sdtm_ex.sas</t>
         </is>
       </c>
       <c r="E234" t="inlineStr"/>
-      <c r="F234" t="inlineStr"/>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>make_sdtm_dy</t>
+        </is>
+      </c>
       <c r="G234" t="inlineStr"/>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>target.xp</t>
-        </is>
-      </c>
-      <c r="I234" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="H234" t="inlineStr"/>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>%make_sdtm_dy(refdate=rfstdtc,date=exendtc);</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr"/>
+      <c r="C235" t="inlineStr"/>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>SAS Files\sdtm_ex.sas</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr"/>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>make_sdtm_dy</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr"/>
+      <c r="H235" t="inlineStr"/>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>%make_sort_order(metadatafile=/folders/myfolders/test1/SDTM_METADATA.xlsx,dataset=EX);</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr"/>
+      <c r="C236" t="inlineStr"/>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>SAS Files\sdtm_ex.sas</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr"/>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>make_sort_order</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr"/>
+      <c r="H236" t="inlineStr"/>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>merge ex(in=inex) target.dm(keep=usubjid rfstdtc arm);</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr"/>
+      <c r="C237" t="inlineStr"/>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>SAS Files\sdtm_ex.sas</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr"/>
+      <c r="F237" t="inlineStr"/>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>ex, target.dm, usubjid, rfstdtc</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr"/>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>proc sort</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr"/>
+      <c r="C238" t="inlineStr"/>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>SAS Files\sdtm_ex.sas</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr"/>
+      <c r="F238" t="inlineStr"/>
+      <c r="G238" t="inlineStr"/>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>target.ex</t>
+        </is>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>%include "/folders/myfolders/test1/common.sas";</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>/folders/myfolders/test1/common.sas</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>SAS Files\sdtm_lb.sas</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr"/>
+      <c r="F239" t="inlineStr"/>
+      <c r="G239" t="inlineStr"/>
+      <c r="H239" t="inlineStr"/>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>%include "/folders/myfolders/test1/make_empty_dataset.sas";</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>/folders/myfolders/test1/make_empty_dataset.sas</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>SAS Files\sdtm_lb.sas</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr"/>
+      <c r="F240" t="inlineStr"/>
+      <c r="G240" t="inlineStr"/>
+      <c r="H240" t="inlineStr"/>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>%include "/folders/myfolders/test1/make_sdtm_dy2.sas";</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>/folders/myfolders/test1/make_sdtm_dy2.sas</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>SAS Files\sdtm_lb.sas</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr"/>
+      <c r="F241" t="inlineStr"/>
+      <c r="G241" t="inlineStr"/>
+      <c r="H241" t="inlineStr"/>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>%include "/folders/myfolders/test1/make_sort_order.sas";</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>/folders/myfolders/test1/make_sort_order.sas</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>SAS Files\sdtm_lb.sas</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr"/>
+      <c r="F242" t="inlineStr"/>
+      <c r="G242" t="inlineStr"/>
+      <c r="H242" t="inlineStr"/>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>%make_empty_dataset(metadatafile=/folders/myfolders/test1/SDTM_METADATA.xlsx,dataset=LB);</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr"/>
+      <c r="C243" t="inlineStr"/>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>SAS Files\sdtm_lb.sas</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr"/>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>make_empty_dataset</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr"/>
+      <c r="H243" t="inlineStr"/>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>%make_sort_order(metadatafile=/folders/myfolders/test1/SDTM_METADATA.xlsx,dataset=LB);</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr"/>
+      <c r="C244" t="inlineStr"/>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>SAS Files\sdtm_lb.sas</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr"/>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>make_sort_order</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr"/>
+      <c r="H244" t="inlineStr"/>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>merge lb(in=inlb) target.dm(keep=usubjid rfstdtc);</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr"/>
+      <c r="C245" t="inlineStr"/>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>SAS Files\sdtm_lb.sas</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr"/>
+      <c r="F245" t="inlineStr"/>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>lb, target.dm, usubjid</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr"/>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>proc sort</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr"/>
+      <c r="C246" t="inlineStr"/>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>SAS Files\sdtm_lb.sas</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr"/>
+      <c r="F246" t="inlineStr"/>
+      <c r="G246" t="inlineStr"/>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>target.lb</t>
+        </is>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>%include "/folders/myfolders/test1/common.sas";</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>/folders/myfolders/test1/common.sas</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>SAS Files\sdtm_xp.sas</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr"/>
+      <c r="F247" t="inlineStr"/>
+      <c r="G247" t="inlineStr"/>
+      <c r="H247" t="inlineStr"/>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>%include "/folders/myfolders/test1/make_sdtm_dy2.sas";</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>/folders/myfolders/test1/make_sdtm_dy2.sas</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>SAS Files\sdtm_xp.sas</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr"/>
+      <c r="F248" t="inlineStr"/>
+      <c r="G248" t="inlineStr"/>
+      <c r="H248" t="inlineStr"/>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>%include "/folders/myfolders/test1/make_sort_order.sas";</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>/folders/myfolders/test1/make_sort_order.sas</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>SAS Files\sdtm_xp.sas</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr"/>
+      <c r="F249" t="inlineStr"/>
+      <c r="G249" t="inlineStr"/>
+      <c r="H249" t="inlineStr"/>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>%include "/folders/myfolders/test1/make_empty_dataset.sas";</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>/folders/myfolders/test1/make_empty_dataset.sas</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>SAS Files\sdtm_xp.sas</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr"/>
+      <c r="F250" t="inlineStr"/>
+      <c r="G250" t="inlineStr"/>
+      <c r="H250" t="inlineStr"/>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>%make_empty_dataset(metadatafile=/folders/myfolders/test1/SDTM_METADATA.xlsx,dataset=XP);</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr"/>
+      <c r="C251" t="inlineStr"/>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>SAS Files\sdtm_xp.sas</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr"/>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>make_empty_dataset</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr"/>
+      <c r="H251" t="inlineStr"/>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>%make_sort_order(metadatafile=/folders/myfolders/test1/SDTM_METADATA.xlsx,dataset=XP);</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr"/>
+      <c r="C252" t="inlineStr"/>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>SAS Files\sdtm_xp.sas</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr"/>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>make_sort_order</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr"/>
+      <c r="H252" t="inlineStr"/>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>merge xp(in=inxp) target.dm(keep=usubjid rfstdtc);</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr"/>
+      <c r="C253" t="inlineStr"/>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>SAS Files\sdtm_xp.sas</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr"/>
+      <c r="F253" t="inlineStr"/>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>xp, target.dm, usubjid</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr"/>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>proc sort</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr"/>
+      <c r="C254" t="inlineStr"/>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>SAS Files\sdtm_xp.sas</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr"/>
+      <c r="F254" t="inlineStr"/>
+      <c r="G254" t="inlineStr"/>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>target.xp</t>
+        </is>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
